--- a/REMAINING.xlsx
+++ b/REMAINING.xlsx
@@ -226,7 +226,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -242,6 +242,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -540,7 +541,7 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -555,7 +556,7 @@
     <col min="8" max="8" width="7.85546875" style="4" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" customWidth="1"/>
     <col min="11" max="11" width="2.28515625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="24.7109375" customWidth="1"/>
+    <col min="12" max="12" width="24.7109375" style="7" customWidth="1"/>
     <col min="13" max="13" width="8.140625" style="4" customWidth="1"/>
     <col min="14" max="14" width="11.140625" customWidth="1"/>
   </cols>
@@ -620,7 +621,7 @@
       <c r="H2" s="4">
         <v>0</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="8" t="s">
         <v>37</v>
       </c>
       <c r="M2" s="4">
@@ -646,7 +647,7 @@
       <c r="H3" s="4">
         <v>0</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="8" t="s">
         <v>38</v>
       </c>
       <c r="M3" s="4">
@@ -672,7 +673,7 @@
       <c r="H4" s="4">
         <v>0</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="8" t="s">
         <v>39</v>
       </c>
       <c r="M4" s="4">
@@ -698,7 +699,7 @@
       <c r="H5" s="4">
         <v>0</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="7" t="s">
         <v>40</v>
       </c>
       <c r="M5" s="4">
@@ -724,7 +725,7 @@
       <c r="H6" s="4">
         <v>2</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="7" t="s">
         <v>41</v>
       </c>
       <c r="M6" s="4">
@@ -804,7 +805,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="L11" s="2"/>
+      <c r="L11" s="9"/>
       <c r="M11" s="5"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -826,7 +827,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-      <c r="L12" s="2"/>
+      <c r="L12" s="9"/>
       <c r="M12" s="5"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -898,7 +899,7 @@
       <c r="H16" s="4">
         <v>0</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" s="8" t="s">
         <v>36</v>
       </c>
       <c r="M16" s="4">
@@ -924,7 +925,7 @@
       <c r="H17" s="4">
         <v>2</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17" s="8" t="s">
         <v>42</v>
       </c>
       <c r="M17" s="4">
@@ -950,7 +951,7 @@
       <c r="H18" s="4">
         <v>0</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" s="8" t="s">
         <v>46</v>
       </c>
       <c r="M18" s="4">
@@ -1091,9 +1092,15 @@
     <hyperlink ref="A19" r:id="rId21" location="Misc"/>
     <hyperlink ref="A23" r:id="rId22"/>
     <hyperlink ref="A24" r:id="rId23" location="BranchandBound"/>
+    <hyperlink ref="L2" r:id="rId24"/>
+    <hyperlink ref="L3" r:id="rId25"/>
+    <hyperlink ref="L4" r:id="rId26"/>
+    <hyperlink ref="L16" r:id="rId27"/>
+    <hyperlink ref="L17" r:id="rId28"/>
+    <hyperlink ref="L18" r:id="rId29"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId24"/>
+  <pageSetup orientation="portrait" r:id="rId30"/>
 </worksheet>
 </file>
 
